--- a/ig/30-modifier-code-prolongee-prorogee/StructureDefinition-eclaire-condition-details.xlsx
+++ b/ig/30-modifier-code-prolongee-prorogee/StructureDefinition-eclaire-condition-details.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T12:30:09+00:00</t>
+    <t>2023-07-27T13:09:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
